--- a/TestData/CMS/test_AddOrUpdateBlockInfo_data.xlsx
+++ b/TestData/CMS/test_AddOrUpdateBlockInfo_data.xlsx
@@ -48,7 +48,7 @@
     <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"entity":'{"Id":"","AppId":"EE458DB3-65D7-4710-B666-65CE6394AF5F","CityCode":[{"name":"*"}],"CityReversed":[{"name":""}],"Title":"lunbo","Subtitle":"lunbo","Version":"0","VersionNum":"","OperatorsID":"fb247fb4-13d1-4c1b-acf8-27278b9bd0b1","OperatorsName":"特来电新能源有限公司","BeginTime":"2020-05-18 14:50:31","EndTime":"2020-05-31 14:50:31","Module":"4","AppAd":[],"BottomColor":"#998156","NewIMGURL":"teldimage/107/5a907f9d84c1490889818165dcb71de8.jpg","CP_Ord":"10","CP_ReleaseRange":"android","CP_JumpType":"3","CP_Image":"teldimage/107/f4ba718f11094674a7e118c6b564b7d9.png"}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiODQ2YjU3NjNiNDU3NGE3YTgyNGQxZTE0Y2IxZjZjYjlSRFMxIiwidG9rZW5faWQiOiJkODY2ZjFlMDczNzU0MDQ4YjNmMjQwNzUxYjMyZmEyOSIsInJlZnJlc2h0b2tlbl9pZCI6IjRlM2VlZGQzMWVhYjQxYjY5NjAwZWFjMzkzZDcxMTdiIiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MTc5NDU4NS4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.RuQ-19JOQdhCxiKheCCQyTxlvvY0WcKVtQD5GkksaqA"}</t>
+    <t>{"entity":'{"Id":"","AppId":"EE458DB3-65D7-4710-B666-65CE6394AF5F","CityCode":[{"name":"*"}],"CityReversed":[{"name":""}],"Title":"lunbo","Subtitle":"lunbo","Version":"0","VersionNum":"","OperatorsID":"fb247fb4-13d1-4c1b-acf8-27278b9bd0b1","OperatorsName":"特来电新能源有限公司","BeginTime":"2020-05-18 14:50:31","EndTime":"2020-05-31 14:50:31","Module":"4","AppAd":[],"BottomColor":"#998156","NewIMGURL":"teldimage/107/5a907f9d84c1490889818165dcb71de8.jpg","CP_Ord":"10","CP_ReleaseRange":"android","CP_JumpType":"3","CP_Image":"teldimage/107/f4ba718f11094674a7e118c6b564b7d9.png"}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiMjQzOTM0MWNhMzI0NGNjMjg5YjU1N2U5OTUxOTJjNWZSRFMxIiwidG9rZW5faWQiOiJlZmUzNzdhNmUxZTk0ZTRkYmNjYWU1M2UzMWVmZGJhZCIsInJlZnJlc2h0b2tlbl9pZCI6ImUwZTQ3NmI2ZjQ3YTQ5ZDNhN2Y0MzliNzk3NTJhZWE3IiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MjU2MTYzNy4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.MFen13ck9vGZPyoReDX8BlVlBfX6ixz1azayI2RccXg"}</t>
   </si>
 </sst>
 </file>
@@ -57,9 +57,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,21 +78,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -100,38 +102,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +118,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,24 +156,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,31 +171,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,85 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,97 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +414,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,6 +437,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,24 +482,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,26 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,16 +534,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,115 +552,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
